--- a/게임 기획파일/나만의 삼국지 시스템기획_201020_ver.0.1.xlsx
+++ b/게임 기획파일/나만의 삼국지 시스템기획_201020_ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\12\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5102F30C-02F7-4BFC-BEE6-F7AFF3769062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3C165C-794C-46C5-B2ED-D865ED9D12E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="675" windowWidth="18465" windowHeight="13920" tabRatio="599" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="870" windowWidth="18465" windowHeight="13920" tabRatio="599" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" r:id="rId1"/>
@@ -8838,6 +8838,12 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8925,33 +8931,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8978,6 +8957,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9071,12 +9077,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10878,28 +10878,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
@@ -10916,14 +10916,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="C6" s="137"/>
+      <c r="C6" s="139"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
@@ -10942,16 +10942,16 @@
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="136" t="s">
+      <c r="D12" s="138" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="137"/>
+      <c r="E12" s="139"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="139"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="12"/>
       <c r="G13" s="23"/>
     </row>
@@ -10974,7 +10974,7 @@
     <row r="15" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="23"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="128" t="s">
         <v>352</v>
       </c>
       <c r="I15" s="60" t="s">
@@ -10991,11 +10991,11 @@
       <c r="B16" s="8"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="129" t="s">
+      <c r="H16" s="128"/>
+      <c r="I16" s="131" t="s">
         <v>374</v>
       </c>
-      <c r="J16" s="131" t="s">
+      <c r="J16" s="133" t="s">
         <v>42</v>
       </c>
       <c r="K16" s="24" t="s">
@@ -11006,15 +11006,15 @@
       <c r="B17" s="8"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="132"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="134"/>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="126"/>
+      <c r="H18" s="128"/>
       <c r="I18" s="60" t="s">
         <v>301</v>
       </c>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
-      <c r="H19" s="126"/>
+      <c r="H19" s="128"/>
       <c r="I19" s="91" t="s">
         <v>235</v>
       </c>
@@ -11059,16 +11059,16 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="137"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="12"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="141"/>
       <c r="F27" s="12"/>
       <c r="G27" s="23"/>
     </row>
@@ -11091,7 +11091,7 @@
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="133" t="s">
+      <c r="H29" s="135" t="s">
         <v>399</v>
       </c>
       <c r="I29" s="24" t="s">
@@ -11107,7 +11107,7 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="134"/>
+      <c r="H30" s="136"/>
       <c r="I30" s="24" t="s">
         <v>348</v>
       </c>
@@ -11120,7 +11120,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="4"/>
-      <c r="H31" s="134"/>
+      <c r="H31" s="136"/>
       <c r="I31" s="24" t="s">
         <v>343</v>
       </c>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G32" s="4"/>
-      <c r="H32" s="134"/>
+      <c r="H32" s="136"/>
       <c r="I32" s="24" t="s">
         <v>401</v>
       </c>
@@ -11145,7 +11145,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H33" s="135"/>
+      <c r="H33" s="137"/>
       <c r="I33" s="91" t="s">
         <v>354</v>
       </c>
@@ -11161,28 +11161,28 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="129" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
@@ -11393,16 +11393,16 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11430,7 +11430,7 @@
   </sheetPr>
   <dimension ref="B2:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:X9"/>
     </sheetView>
   </sheetViews>
@@ -11443,206 +11443,206 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="192" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="178"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="181"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="178"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="178"/>
-      <c r="R4" s="178"/>
-      <c r="S4" s="178"/>
-      <c r="T4" s="178"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="178"/>
-      <c r="W4" s="178"/>
-      <c r="X4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="180"/>
+      <c r="R4" s="180"/>
+      <c r="S4" s="180"/>
+      <c r="T4" s="180"/>
+      <c r="U4" s="180"/>
+      <c r="V4" s="180"/>
+      <c r="W4" s="180"/>
+      <c r="X4" s="181"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
-      <c r="P5" s="178"/>
-      <c r="Q5" s="178"/>
-      <c r="R5" s="178"/>
-      <c r="S5" s="178"/>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178"/>
-      <c r="V5" s="178"/>
-      <c r="W5" s="178"/>
-      <c r="X5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="181"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="177"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="178"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="180"/>
+      <c r="Q6" s="180"/>
+      <c r="R6" s="180"/>
+      <c r="S6" s="180"/>
+      <c r="T6" s="180"/>
+      <c r="U6" s="180"/>
+      <c r="V6" s="180"/>
+      <c r="W6" s="180"/>
+      <c r="X6" s="181"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
-      <c r="U7" s="178"/>
-      <c r="V7" s="178"/>
-      <c r="W7" s="178"/>
-      <c r="X7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="R7" s="180"/>
+      <c r="S7" s="180"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="180"/>
+      <c r="V7" s="180"/>
+      <c r="W7" s="180"/>
+      <c r="X7" s="181"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
-      <c r="P8" s="178"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="178"/>
-      <c r="W8" s="178"/>
-      <c r="X8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="180"/>
+      <c r="W8" s="180"/>
+      <c r="X8" s="181"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="182"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="184"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -11650,19 +11650,19 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="185"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="89" t="s">
@@ -11880,12 +11880,12 @@
         <v>71096.992088353014</v>
       </c>
       <c r="M19" s="39"/>
-      <c r="Z19" s="184" t="s">
+      <c r="Z19" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="186"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="188"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20" s="49">
@@ -11932,12 +11932,12 @@
         <v>127323.88451255254</v>
       </c>
       <c r="M20" s="39"/>
-      <c r="Z20" s="187">
+      <c r="Z20" s="189">
         <v>1.5</v>
       </c>
-      <c r="AA20" s="188"/>
-      <c r="AB20" s="188"/>
-      <c r="AC20" s="189"/>
+      <c r="AA20" s="190"/>
+      <c r="AB20" s="190"/>
+      <c r="AC20" s="191"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="49">
@@ -12210,21 +12210,21 @@
       <c r="B27" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="193" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="193">
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="195">
         <f>SUM(C16:L26)</f>
         <v>43594964.44022736</v>
       </c>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AJ28" s="2" t="s">
@@ -12926,7 +12926,7 @@
   </sheetPr>
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -13954,120 +13954,120 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="126" t="s">
         <v>572</v>
       </c>
-      <c r="C2" s="203" t="s">
+      <c r="C2" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="126" t="s">
         <v>574</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="125" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="126" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="196" t="s">
         <v>576</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="196"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="197"/>
-      <c r="C5" s="198"/>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="G5" s="198"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="199"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="200"/>
+      <c r="D5" s="200"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="201"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="201"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="197"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="198"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="199"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="197"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="197"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="197"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="199"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="200"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="202"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203"/>
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="203"/>
+      <c r="K11" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14484,7 +14484,7 @@
   </sheetPr>
   <dimension ref="B2:Y155"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:T12"/>
     </sheetView>
   </sheetViews>
@@ -14498,252 +14498,252 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="142" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="144"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="146"/>
+      <c r="O3" s="146"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="146"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="146"/>
+      <c r="T3" s="147"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="147"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="147"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="147"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="147"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="147"/>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="144"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="144"/>
-      <c r="T10" s="145"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="147"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="145"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="147"/>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="150"/>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="185" t="s">
         <v>530</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="183"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="89" t="s">
@@ -15822,7 +15822,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16224,20 +16224,20 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="142" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
       <c r="O2" s="124" t="s">
         <v>536</v>
       </c>
@@ -16249,18 +16249,18 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="147"/>
       <c r="O3" s="123" t="s">
         <v>538</v>
       </c>
@@ -16272,18 +16272,18 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="147"/>
       <c r="O4" s="123" t="s">
         <v>539</v>
       </c>
@@ -16295,18 +16295,18 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="147"/>
       <c r="O5" s="123" t="s">
         <v>540</v>
       </c>
@@ -16318,18 +16318,18 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="150"/>
       <c r="O6" s="123" t="s">
         <v>541</v>
       </c>
@@ -16537,145 +16537,145 @@
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="142" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="144"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="147"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="147"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="147"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="145"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="147"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="145"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="147"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="145"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="147"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="150"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -16724,24 +16724,24 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
       <c r="M15" s="4"/>
-      <c r="U15" s="151" t="s">
+      <c r="U15" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="V15" s="152"/>
+      <c r="V15" s="154"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -16777,10 +16777,10 @@
         <v>9</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="U16" s="149">
+      <c r="U16" s="151">
         <v>1.1200000000000001</v>
       </c>
-      <c r="V16" s="150"/>
+      <c r="V16" s="152"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -18711,36 +18711,36 @@
       <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="161"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="168"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="63"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -18756,7 +18756,7 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="169" t="s">
         <v>376</v>
       </c>
       <c r="C9" s="72" t="s">
@@ -18773,82 +18773,82 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
-      <c r="C10" s="160" t="s">
+      <c r="B10" s="169"/>
+      <c r="C10" s="165" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="74" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="159" t="s">
+      <c r="E10" s="166" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="167" t="s">
         <v>207</v>
       </c>
       <c r="G10" s="63"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
-      <c r="C11" s="160"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="165"/>
       <c r="D11" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="E11" s="159"/>
-      <c r="F11" s="155"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="168"/>
       <c r="G11" s="63"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
-      <c r="C12" s="160" t="s">
+      <c r="B12" s="169"/>
+      <c r="C12" s="165" t="s">
         <v>436</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="166" t="s">
         <v>225</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F12" s="167" t="s">
         <v>211</v>
       </c>
       <c r="G12" s="63"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
-      <c r="C13" s="160"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="165"/>
       <c r="D13" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="155"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="168"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="156"/>
-      <c r="C14" s="160" t="s">
+      <c r="B14" s="169"/>
+      <c r="C14" s="165" t="s">
         <v>374</v>
       </c>
       <c r="D14" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="154" t="s">
+      <c r="F14" s="167" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="156"/>
-      <c r="C15" s="160"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="155"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="168"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="169" t="s">
         <v>227</v>
       </c>
       <c r="C16" s="72" t="s">
@@ -18857,36 +18857,36 @@
       <c r="D16" s="61" t="s">
         <v>407</v>
       </c>
-      <c r="E16" s="161" t="s">
+      <c r="E16" s="172" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="162"/>
+      <c r="F16" s="173"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="156"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="71" t="s">
         <v>391</v>
       </c>
       <c r="D17" s="62" t="s">
         <v>569</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="158"/>
+      <c r="F17" s="171"/>
     </row>
     <row r="18" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="156"/>
+      <c r="B18" s="169"/>
       <c r="C18" s="71" t="s">
         <v>418</v>
       </c>
       <c r="D18" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="170" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="158"/>
+      <c r="F18" s="171"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q19" s="70"/>
@@ -18959,11 +18959,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B9:B15"/>
@@ -18974,6 +18969,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -21149,174 +21149,174 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="176"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="178"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="181"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="178"/>
-      <c r="M4" s="179"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="181"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
-      <c r="H5" s="178"/>
-      <c r="I5" s="178"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="179"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="181"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="177"/>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="178"/>
-      <c r="M6" s="179"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="181"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="179"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="181"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="179"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="181"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="179"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="181"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="178"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="179"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="181"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="178"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="179"/>
+      <c r="B11" s="179"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="181"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="179"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="181"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="180"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="181"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="182"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="184"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -21325,20 +21325,20 @@
       <c r="D16" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="183" t="s">
+      <c r="B18" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
@@ -21716,34 +21716,34 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="174"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="160" t="s">
+      <c r="B30" s="165" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="165"/>
+      <c r="M30" s="165"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="49" t="s">
@@ -22161,18 +22161,18 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/게임 기획파일/나만의 삼국지 시스템기획_201020_ver.0.1.xlsx
+++ b/게임 기획파일/나만의 삼국지 시스템기획_201020_ver.0.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\12\TeamProject1\게임 기획파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F966DAB3-7F7C-45AE-9B5D-E3FFE53F3316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="보스 도감 시스템" sheetId="16" r:id="rId19"/>
     <sheet name="보스 도감 DB" sheetId="17" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -556,12 +555,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -609,12 +608,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -698,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -763,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -870,12 +869,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1146,7 +1145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1247,12 +1246,12 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BB01CDDA-4E17-4710-908F-D8B54D63840A}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1536,12 +1535,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1665,7 +1664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1780,7 +1779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1841,7 +1840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1920,7 +1919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9D3F8589-7E69-4BC0-8252-67D2A8AA5925}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2008,12 +2007,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2082,7 +2081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2415,7 +2414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2535,12 +2534,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2606,12 +2605,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2717,7 +2716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2893,7 +2892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3116,7 +3115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3159,7 +3158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3202,7 +3201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3245,7 +3244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3288,7 +3287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3331,7 +3330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3374,7 +3373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3417,7 +3416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3460,7 +3459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3503,7 +3502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3551,12 +3550,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3716,7 +3715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3815,7 +3814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3939,12 +3938,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F490D58B-E785-407A-B573-C271271B0601}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4104,7 +4103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4165,7 +4164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4244,7 +4243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4305,7 +4304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4389,12 +4388,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4492,7 +4491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4553,7 +4552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4614,7 +4613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4729,7 +4728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4777,12 +4776,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{B0CF69E1-2D3D-4948-B2B9-51836BCEFCF9}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4908,7 +4907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="579">
   <si>
     <t>1000나유타</t>
   </si>
@@ -5465,9 +5464,6 @@
     <t>적 처치 획득 식량 증가</t>
   </si>
   <si>
-    <t xml:space="preserve">적 처치 획득 지식 증가 </t>
-  </si>
-  <si>
     <t>치명타 확률 ~% 증가</t>
   </si>
   <si>
@@ -5786,9 +5782,6 @@
   </si>
   <si>
     <t>공격 속도 증가</t>
-  </si>
-  <si>
-    <t>훈련 소요 시간 감소</t>
   </si>
   <si>
     <t>치명타 확률 증가</t>
@@ -7712,11 +7705,15 @@
     <t>갈색마</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>훈련 비용 감소</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -8471,7 +8468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -8937,6 +8934,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8963,33 +8987,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9083,6 +9080,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10857,7 +10857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF2F5597"/>
   </sheetPr>
@@ -10885,7 +10885,7 @@
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" s="128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="137" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C6" s="138"/>
     </row>
@@ -10949,7 +10949,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="137" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E12" s="138"/>
       <c r="F12" s="4"/>
@@ -10965,32 +10965,32 @@
       <c r="C14" s="23"/>
       <c r="G14" s="22"/>
       <c r="H14" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="23"/>
       <c r="G15" s="4"/>
       <c r="H15" s="127" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J15" s="33" t="s">
         <v>53</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
@@ -10999,7 +10999,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="127"/>
       <c r="I16" s="130" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J16" s="132" t="s">
         <v>41</v>
@@ -11022,7 +11022,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="127"/>
       <c r="I18" s="60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J18" s="33" t="s">
         <v>43</v>
@@ -11033,16 +11033,16 @@
       <c r="B19" s="8"/>
       <c r="H19" s="127"/>
       <c r="I19" s="91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J19" s="92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K19" s="91" t="s">
         <v>54</v>
       </c>
       <c r="L19" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -11066,7 +11066,7 @@
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
       <c r="D26" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="138"/>
       <c r="F26" s="10"/>
@@ -11082,29 +11082,29 @@
       <c r="F28" s="4"/>
       <c r="G28" s="22"/>
       <c r="H28" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J28" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
       <c r="H29" s="134" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>54</v>
@@ -11115,60 +11115,60 @@
       <c r="G30" s="4"/>
       <c r="H30" s="135"/>
       <c r="I30" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="4"/>
       <c r="H31" s="135"/>
       <c r="I31" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J31" s="33" t="s">
         <v>49</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G32" s="4"/>
       <c r="H32" s="135"/>
       <c r="I32" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J32" s="33" t="s">
         <v>52</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H33" s="136"/>
       <c r="I33" s="91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J33" s="92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K33" s="91" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L33" s="93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="128" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C35" s="129"/>
       <c r="D35" s="129"/>
@@ -11192,28 +11192,28 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B37" s="77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E37" s="78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H37" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I37" s="79" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -11224,19 +11224,19 @@
         <v>1</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G38" s="81" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="82" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I38" s="83" t="s">
         <v>0</v>
@@ -11244,25 +11244,25 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B39" s="84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C39" s="81">
         <v>1000</v>
       </c>
       <c r="D39" s="82" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H39" s="82" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I39" s="83" t="s">
         <v>21</v>
@@ -11270,25 +11270,25 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B40" s="84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C40" s="81" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E40" s="81" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G40" s="81" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I40" s="83" t="s">
         <v>22</v>
@@ -11296,25 +11296,25 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B41" s="84" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E41" s="81" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G41" s="81" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="82" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I41" s="83" t="s">
         <v>9</v>
@@ -11322,80 +11322,80 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B42" s="84" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F42" s="82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G42" s="81" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="82" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B43" s="84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C43" s="81" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E43" s="81" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F43" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G43" s="81" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="82" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I43" s="83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B44" s="85" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C44" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E44" s="86" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G44" s="86" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="87" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I44" s="88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -11430,7 +11430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -11450,7 +11450,7 @@
   <sheetData>
     <row r="2" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="191" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C2" s="176"/>
       <c r="D2" s="176"/>
@@ -11652,12 +11652,12 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B14" s="184" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C14" s="184"/>
       <c r="D14" s="184"/>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="50">
         <v>0</v>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="M19" s="39"/>
       <c r="Z19" s="185" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA19" s="186"/>
       <c r="AB19" s="186"/>
@@ -12184,40 +12184,40 @@
         <v>2486045.1313491617</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L26" s="40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27" s="90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C27" s="192" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D27" s="193"/>
       <c r="E27" s="193"/>
@@ -12234,7 +12234,7 @@
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AJ28" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -12254,14 +12254,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12289,42 +12289,42 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="17">
         <v>0.01</v>
@@ -12335,19 +12335,19 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F3" s="17">
         <v>0.02</v>
@@ -12358,19 +12358,19 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="19">
         <v>2E-3</v>
@@ -12381,19 +12381,19 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="17">
         <v>5.0000000000000001E-3</v>
@@ -12404,19 +12404,19 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="19">
         <v>1E-3</v>
@@ -12427,19 +12427,19 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="19">
         <v>3.0000000000000001E-3</v>
@@ -12450,19 +12450,19 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F8" s="19">
         <v>1E-3</v>
@@ -12471,24 +12471,24 @@
         <v>0.1</v>
       </c>
       <c r="S8" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="17">
         <v>0.03</v>
@@ -12497,22 +12497,22 @@
         <v>3</v>
       </c>
       <c r="S9" s="52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S10" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S12" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -12526,7 +12526,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="S13" s="52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -12540,7 +12540,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="45"/>
       <c r="S14" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -12554,7 +12554,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="45"/>
       <c r="S15" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -12568,7 +12568,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="45"/>
       <c r="S16" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -12582,7 +12582,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="45"/>
       <c r="S17" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -12596,7 +12596,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="45"/>
       <c r="S18" s="52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -12610,7 +12610,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="45"/>
       <c r="S19" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -12624,7 +12624,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="45"/>
       <c r="S20" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -12638,19 +12638,19 @@
       <c r="H21" s="4"/>
       <c r="I21" s="45"/>
       <c r="S21" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="55"/>
       <c r="S22" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="55"/>
       <c r="S23" s="52" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -12926,14 +12926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12950,51 +12950,51 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="114" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G2" s="1">
         <v>15</v>
@@ -13008,22 +13008,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F3" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G3" s="1">
         <v>15</v>
@@ -13037,22 +13037,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G4" s="1">
         <v>15</v>
@@ -13066,22 +13066,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G5" s="1">
         <v>15</v>
@@ -13095,22 +13095,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F6" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G6" s="1">
         <v>15</v>
@@ -13124,22 +13124,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G7" s="1">
         <v>15</v>
@@ -13153,22 +13153,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="114" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="116" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G8" s="1">
         <v>15</v>
@@ -13486,14 +13486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13510,45 +13510,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G2" s="17">
         <v>0.3</v>
@@ -13556,22 +13556,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="98">
         <v>0.5</v>
@@ -13579,16 +13579,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E4" s="44" t="s">
         <v>46</v>
@@ -13597,50 +13597,50 @@
         <v>57</v>
       </c>
       <c r="G4" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>58</v>
+        <v>326</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="98">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="117" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G6" s="17">
         <v>2</v>
@@ -13648,22 +13648,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F7" s="97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" s="98">
         <v>0.3</v>
@@ -13671,22 +13671,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G8" s="17">
         <v>3</v>
@@ -13694,19 +13694,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F9" s="97" t="s">
         <v>3</v>
@@ -13717,22 +13717,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
@@ -13740,22 +13740,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F11" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="98">
         <v>0.2</v>
@@ -13763,19 +13763,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>3</v>
@@ -13786,19 +13786,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F13" s="97" t="s">
         <v>3</v>
@@ -13809,68 +13809,68 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>159</v>
+        <v>454</v>
+      </c>
+      <c r="F14" s="204" t="s">
+        <v>578</v>
       </c>
       <c r="G14" s="17">
-        <v>4</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="117" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F15" s="97" t="s">
-        <v>166</v>
+        <v>457</v>
+      </c>
+      <c r="F15" s="204" t="s">
+        <v>578</v>
       </c>
       <c r="G15" s="98">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E16" s="44" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="17">
         <v>0.5</v>
@@ -13878,26 +13878,29 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="98">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="115"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -13908,14 +13911,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:K11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13932,25 +13935,25 @@
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="125" t="s">
+        <v>569</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>570</v>
+      </c>
+      <c r="D2" s="125" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="E2" s="124" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" s="125" t="s">
         <v>572</v>
-      </c>
-      <c r="D2" s="125" t="s">
-        <v>573</v>
-      </c>
-      <c r="E2" s="124" t="s">
-        <v>572</v>
-      </c>
-      <c r="F2" s="125" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="195" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C4" s="196"/>
       <c r="D4" s="196"/>
@@ -14057,7 +14060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14079,39 +14082,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="D1" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="E1" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="105" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" s="105" t="s">
-        <v>464</v>
-      </c>
       <c r="F1" s="101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C2" s="107" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E2" s="107" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F2" s="121">
         <v>200</v>
@@ -14119,19 +14122,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C3" s="107" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="109" t="s">
-        <v>477</v>
-      </c>
       <c r="E3" s="107" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F3" s="121">
         <v>400</v>
@@ -14139,19 +14142,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F4" s="121">
         <v>600</v>
@@ -14159,19 +14162,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="106" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B5" s="107" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="107" t="s">
         <v>473</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>475</v>
-      </c>
       <c r="D5" s="109" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F5" s="121">
         <v>800</v>
@@ -14179,19 +14182,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F6" s="121">
         <v>1000</v>
@@ -14206,7 +14209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -14229,222 +14232,222 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="105" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="105" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="105" t="s">
-        <v>462</v>
-      </c>
       <c r="D1" s="108" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E1" s="110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F1" s="111" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="106" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E2" s="121">
         <v>50</v>
       </c>
       <c r="F2" s="107" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E3" s="121">
         <v>70</v>
       </c>
       <c r="F3" s="107" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="106" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C4" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D4" s="106" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E4" s="121">
         <v>150</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="106" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C5" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" s="106" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E5" s="121">
         <v>220</v>
       </c>
       <c r="F5" s="107" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="106" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E6" s="121">
         <v>320</v>
       </c>
       <c r="F6" s="107" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="106" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E7" s="121">
         <v>470</v>
       </c>
       <c r="F7" s="107" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="106" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E8" s="121">
         <v>560</v>
       </c>
       <c r="F8" s="107" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="106" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E9" s="121">
         <v>620</v>
       </c>
       <c r="F9" s="107" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="106" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B10" s="106" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E10" s="121">
         <v>620</v>
       </c>
       <c r="F10" s="107" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="106" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C11" s="106" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E11" s="121">
         <v>700</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -14455,7 +14458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -14476,7 +14479,7 @@
   <sheetData>
     <row r="2" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="141" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -14709,7 +14712,7 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="184" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
@@ -14724,7 +14727,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16" s="50">
         <v>0</v>
@@ -15804,14 +15807,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15827,39 +15830,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F2" s="18">
         <v>0.03</v>
@@ -15867,19 +15870,19 @@
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F3" s="18">
         <v>0.03</v>
@@ -15887,19 +15890,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F4" s="18">
         <v>0.03</v>
@@ -15907,19 +15910,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F5" s="18">
         <v>0.03</v>
@@ -15927,19 +15930,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="18">
         <v>0.03</v>
@@ -15947,16 +15950,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -15967,19 +15970,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F8" s="18">
         <v>0.03</v>
@@ -15987,19 +15990,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F9" s="18">
         <v>0.03</v>
@@ -16007,19 +16010,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="18">
         <v>0.03</v>
@@ -16027,19 +16030,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F11" s="18">
         <v>0.03</v>
@@ -16047,19 +16050,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F12" s="18">
         <v>0.03</v>
@@ -16067,19 +16070,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F13" s="18">
         <v>0.03</v>
@@ -16087,19 +16090,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="18">
         <v>0.03</v>
@@ -16107,19 +16110,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F15" s="18">
         <v>0.03</v>
@@ -16127,19 +16130,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F16" s="18">
         <v>0.03</v>
@@ -16147,19 +16150,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F17" s="18">
         <v>0.03</v>
@@ -16174,7 +16177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -16202,7 +16205,7 @@
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="141" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -16216,13 +16219,13 @@
       <c r="L2" s="142"/>
       <c r="M2" s="143"/>
       <c r="O2" s="123" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P2" s="123" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q2" s="123" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
@@ -16239,10 +16242,10 @@
       <c r="L3" s="145"/>
       <c r="M3" s="146"/>
       <c r="O3" s="122" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q3" s="97" t="s">
         <v>3</v>
@@ -16262,13 +16265,13 @@
       <c r="L4" s="145"/>
       <c r="M4" s="146"/>
       <c r="O4" s="122" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -16285,13 +16288,13 @@
       <c r="L5" s="145"/>
       <c r="M5" s="146"/>
       <c r="O5" s="122" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -16308,13 +16311,13 @@
       <c r="L6" s="148"/>
       <c r="M6" s="149"/>
       <c r="O6" s="122" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -16326,13 +16329,13 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="O7" s="122" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P7" s="47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -16344,10 +16347,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="O8" s="122" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="P8" s="47" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q8" s="97" t="s">
         <v>3</v>
@@ -16360,13 +16363,13 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="O9" s="122" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
@@ -16376,13 +16379,13 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="O10" s="122" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -16391,32 +16394,32 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="O11" s="122" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O12" s="122" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O13" s="122" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P13" s="47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q13" s="97" t="s">
         <v>3</v>
@@ -16424,43 +16427,43 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O14" s="122" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P14" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O15" s="122" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="P15" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="O16" s="122" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="P16" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="15:17" x14ac:dyDescent="0.3">
       <c r="O17" s="122" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="Q17" s="97" t="s">
         <v>3</v>
@@ -16477,7 +16480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -16515,7 +16518,7 @@
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="141" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
@@ -16671,7 +16674,7 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -16702,7 +16705,7 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="154"/>
       <c r="D15" s="154"/>
@@ -16716,7 +16719,7 @@
       <c r="L15" s="154"/>
       <c r="M15" s="4"/>
       <c r="U15" s="152" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V15" s="153"/>
     </row>
@@ -17235,14 +17238,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17256,33 +17259,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" s="94" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="119" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D2" s="97" t="s">
         <v>3</v>
@@ -17291,98 +17294,98 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="118" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="18">
         <v>0.5</v>
       </c>
       <c r="F3" s="118" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="18">
         <v>0.1</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="18">
         <v>0.5</v>
       </c>
       <c r="F5" s="118" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="18">
         <v>0.15</v>
       </c>
       <c r="F6" s="118" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D7" s="97" t="s">
         <v>3</v>
@@ -17391,98 +17394,98 @@
         <v>0.2</v>
       </c>
       <c r="F7" s="118" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="18">
         <v>1</v>
       </c>
       <c r="F8" s="118" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="18">
         <v>0.2</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="18">
         <v>1</v>
       </c>
       <c r="F10" s="118" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="18">
         <v>1.3</v>
       </c>
       <c r="F11" s="118" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12" s="97" t="s">
         <v>3</v>
@@ -17491,78 +17494,78 @@
         <v>0.3</v>
       </c>
       <c r="F12" s="118" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="18">
         <v>1.5</v>
       </c>
       <c r="F13" s="118" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="18">
         <v>0.3</v>
       </c>
       <c r="F14" s="118" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="18">
         <v>1.5</v>
       </c>
       <c r="F15" s="118" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D16" s="97" t="s">
         <v>3</v>
@@ -17571,7 +17574,7 @@
         <v>0.35</v>
       </c>
       <c r="F16" s="118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -17583,7 +17586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -17611,33 +17614,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="68">
         <v>1.1200000000000001</v>
@@ -17651,13 +17654,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="69">
         <v>1.1200000000000001</v>
@@ -17672,13 +17675,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4" s="68">
         <v>1.1200000000000001</v>
@@ -17693,13 +17696,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" s="69">
         <v>1.1200000000000001</v>
@@ -17714,13 +17717,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="68">
         <v>1.1200000000000001</v>
@@ -17735,13 +17738,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="69">
         <v>1.1200000000000001</v>
@@ -17756,13 +17759,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" s="68">
         <v>1.1200000000000001</v>
@@ -17777,13 +17780,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="69">
         <v>1.1200000000000001</v>
@@ -17798,13 +17801,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="68">
         <v>1.1200000000000001</v>
@@ -17819,13 +17822,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" s="69">
         <v>1.1200000000000001</v>
@@ -17840,13 +17843,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="68">
         <v>1.1200000000000001</v>
@@ -17861,13 +17864,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" s="69">
         <v>1.1200000000000001</v>
@@ -17882,13 +17885,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="68">
         <v>1.1200000000000001</v>
@@ -17903,13 +17906,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15" s="69">
         <v>1.1200000000000001</v>
@@ -17924,13 +17927,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="68">
         <v>1.1200000000000001</v>
@@ -17945,13 +17948,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D17" s="69">
         <v>1.1200000000000001</v>
@@ -17966,13 +17969,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="68">
         <v>1.1200000000000001</v>
@@ -17987,13 +17990,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D19" s="69">
         <v>1.1200000000000001</v>
@@ -18008,13 +18011,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="68">
         <v>1.1200000000000001</v>
@@ -18029,13 +18032,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21" s="69">
         <v>1.1200000000000001</v>
@@ -18057,7 +18060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -18081,39 +18084,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D2" s="33">
         <v>1</v>
@@ -18134,13 +18137,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="33">
         <v>2</v>
@@ -18156,18 +18159,18 @@
         <v>14688</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4" s="33">
         <v>5</v>
@@ -18176,25 +18179,25 @@
         <v>2520</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G4" s="38">
         <f t="shared" ref="G4:G21" si="0">E4*102</f>
         <v>257040</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" s="33">
         <v>10</v>
@@ -18203,25 +18206,25 @@
         <v>40800</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" si="0"/>
         <v>4161600</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="33">
         <v>30</v>
@@ -18230,25 +18233,25 @@
         <v>1200000</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" si="0"/>
         <v>122400000</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="33">
         <v>60</v>
@@ -18257,25 +18260,25 @@
         <v>24000000</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" si="0"/>
         <v>2448000000</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" s="33">
         <v>120</v>
@@ -18284,25 +18287,25 @@
         <v>480000000</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>48960000000</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="33">
         <v>300</v>
@@ -18311,25 +18314,25 @@
         <v>1440000000</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>146880000000</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="33">
         <v>600</v>
@@ -18338,25 +18341,25 @@
         <v>37800000000</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>3855600000000</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" s="33">
         <v>1800</v>
@@ -18365,25 +18368,25 @@
         <v>156000000000</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>15912000000000</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="33">
         <v>3600</v>
@@ -18392,25 +18395,25 @@
         <v>4800000000000</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" si="0"/>
         <v>489600000000000</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" s="33">
         <v>180</v>
@@ -18419,25 +18422,25 @@
         <v>22000000000000</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G13" s="42">
         <f t="shared" si="0"/>
         <v>2244000000000000</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="33">
         <v>1800</v>
@@ -18446,25 +18449,25 @@
         <v>660000000000000</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>6.732E+16</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15" s="33">
         <v>7200</v>
@@ -18473,25 +18476,25 @@
         <v>4.6E+16</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="0"/>
         <v>4.692E+18</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="33">
         <v>120</v>
@@ -18500,25 +18503,25 @@
         <v>2.7E+16</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>2.754E+18</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D17" s="33">
         <v>60</v>
@@ -18527,25 +18530,25 @@
         <v>8.4E+16</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G17" s="42">
         <f t="shared" si="0"/>
         <v>8.568E+18</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="33">
         <v>600</v>
@@ -18554,25 +18557,25 @@
         <v>3E+20</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G18" s="42">
         <f t="shared" si="0"/>
         <v>3.0599999999999998E+22</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D19" s="33">
         <v>3600</v>
@@ -18581,25 +18584,25 @@
         <v>8.16E+22</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G19" s="42">
         <f t="shared" si="0"/>
         <v>8.3232000000000002E+24</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="33">
         <v>10800</v>
@@ -18608,25 +18611,25 @@
         <v>2.7899999999999999E+24</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G20" s="42">
         <f t="shared" si="0"/>
         <v>2.8457999999999999E+26</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21" s="33">
         <v>300</v>
@@ -18635,14 +18638,14 @@
         <v>5.5799999999999999E+24</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G21" s="42">
         <f t="shared" si="0"/>
         <v>5.6915999999999997E+26</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -18660,7 +18663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -18688,41 +18691,41 @@
       <c r="H1" s="63"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="157"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="160"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="160"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="169"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="163"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="63"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -18733,137 +18736,137 @@
       <c r="F8" s="63"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="168" t="s">
-        <v>375</v>
+      <c r="B9" s="157" t="s">
+        <v>373</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
-      <c r="C10" s="164" t="s">
-        <v>410</v>
+      <c r="B10" s="157"/>
+      <c r="C10" s="161" t="s">
+        <v>408</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>390</v>
-      </c>
-      <c r="F10" s="166" t="s">
-        <v>206</v>
+        <v>231</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="155" t="s">
+        <v>204</v>
       </c>
       <c r="G10" s="63"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="168"/>
-      <c r="C11" s="164"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="161"/>
       <c r="D11" s="75" t="s">
-        <v>457</v>
-      </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="167"/>
+        <v>455</v>
+      </c>
+      <c r="E11" s="160"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="63"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168"/>
-      <c r="C12" s="164" t="s">
-        <v>435</v>
+      <c r="B12" s="157"/>
+      <c r="C12" s="161" t="s">
+        <v>433</v>
       </c>
       <c r="D12" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="63"/>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="157"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="160"/>
+      <c r="F13" s="156"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="157"/>
+      <c r="C14" s="161" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="160" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="155" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="157"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="160"/>
+      <c r="F15" s="156"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="157" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="162" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="163"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="157"/>
+      <c r="C17" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="E17" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="165" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="166" t="s">
+      <c r="F17" s="159"/>
+    </row>
+    <row r="18" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="157"/>
+      <c r="C18" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="63"/>
-    </row>
-    <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="167"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
-      <c r="C14" s="164" t="s">
-        <v>373</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="165" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="166" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="168"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="167"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="168" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>406</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>393</v>
-      </c>
-      <c r="F16" s="172"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="168"/>
-      <c r="C17" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>568</v>
-      </c>
-      <c r="E17" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="170"/>
-    </row>
-    <row r="18" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="168"/>
-      <c r="C18" s="71" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="169" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="170"/>
+      <c r="E18" s="158" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q19" s="70"/>
@@ -18936,6 +18939,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B9:B15"/>
@@ -18946,11 +18954,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -18959,7 +18962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -18982,19 +18985,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="14"/>
     </row>
@@ -21105,7 +21108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -21297,13 +21300,13 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="184" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="184"/>
       <c r="D18" s="184"/>
@@ -21319,40 +21322,40 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="50" t="s">
+      <c r="M19" s="46" t="s">
         <v>221</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="M19" s="46" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -21707,57 +21710,57 @@
       <c r="M28" s="173"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="164" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="164"/>
-      <c r="K30" s="164"/>
-      <c r="L30" s="164"/>
-      <c r="M30" s="164"/>
+      <c r="B30" s="161" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E31" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="M31" s="46" t="s">
         <v>221</v>
-      </c>
-      <c r="I31" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="J31" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="K31" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -22166,7 +22169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -22198,16 +22201,16 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="95" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="95" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1" s="95" t="s">
         <v>40</v>
@@ -22244,7 +22247,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="33">
         <v>10</v>
@@ -22290,7 +22293,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="33">
         <v>20</v>
@@ -22336,7 +22339,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="33">
         <v>60</v>
@@ -22382,7 +22385,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="33">
         <v>240</v>
@@ -22428,7 +22431,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="33">
         <v>1200</v>
@@ -22474,7 +22477,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="33">
         <v>7200</v>
@@ -22525,7 +22528,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="33">
         <f>B7*7</f>
@@ -22577,7 +22580,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="33">
         <f>B8*8</f>
@@ -22629,7 +22632,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="33">
         <f>B9*9</f>
@@ -22681,7 +22684,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="33">
         <f>B10*10</f>
@@ -22733,7 +22736,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" s="33">
         <f>B11*11</f>
@@ -22785,7 +22788,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="33">
         <f>B12*12</f>
@@ -22837,7 +22840,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="33">
         <f>B13*13</f>
@@ -22889,7 +22892,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="33">
         <f>B14*14</f>
@@ -22941,7 +22944,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="33">
         <f>B15*15</f>
@@ -22993,7 +22996,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="33">
         <f>B16*16</f>
@@ -23045,7 +23048,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="33">
         <f>B17*17</f>
@@ -23097,7 +23100,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="33">
         <f>B18*18</f>
@@ -23149,7 +23152,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" s="33">
         <f>B19*19</f>
@@ -23201,7 +23204,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="33">
         <f>B20*20</f>
@@ -23263,7 +23266,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R26" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -23275,14 +23278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23297,63 +23300,63 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G1" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H1" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>261</v>
-      </c>
       <c r="I1" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J1" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L1" s="48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M1" s="48" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N1" s="48" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O1" s="48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>253</v>
-      </c>
       <c r="D2" s="47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="21">
         <v>50</v>
@@ -23391,16 +23394,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="21">
         <v>100</v>
@@ -23438,16 +23441,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>122</v>
       </c>
       <c r="E4" s="21">
         <v>215</v>
@@ -23485,16 +23488,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="21">
         <v>494.49999999999994</v>
@@ -23532,16 +23535,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="21">
         <v>1211.5249999999999</v>
@@ -23579,16 +23582,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="21">
         <v>3149.9649999999997</v>
@@ -23626,16 +23629,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="21">
         <v>8662.4037499999995</v>
@@ -23673,16 +23676,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="21">
         <v>25120.970874999999</v>
@@ -23720,16 +23723,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="21">
         <v>76618.961168749986</v>
@@ -23767,16 +23770,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="21">
         <v>245180.67573999998</v>
@@ -23814,16 +23817,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B12" s="99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="21">
         <v>821355.263729</v>
@@ -23861,16 +23864,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" s="21">
         <v>2874743.4230514998</v>
@@ -23908,16 +23911,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="21">
         <v>10492813.494137974</v>
@@ -23955,16 +23958,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" s="21">
         <v>39872691.277724303</v>
@@ -24002,16 +24005,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E16" s="21">
         <v>157497130.54701102</v>
@@ -24049,16 +24052,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E17" s="21">
         <v>645738235.24274516</v>
@@ -24096,16 +24099,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" s="21">
         <v>2744387499.7816668</v>
@@ -24143,16 +24146,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" s="21">
         <v>12075304999.039335</v>
@@ -24190,16 +24193,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E20" s="21">
         <v>54942637745.628975</v>
@@ -24237,16 +24240,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E21" s="21">
         <v>258230397404.45618</v>
